--- a/participants.xlsx
+++ b/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\163032\Desktop\BestofUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64EC991-2D18-4538-81E6-31E4BE9336E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A08738-53ED-470D-84C8-F3136F82C5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UID</t>
   </si>
@@ -41,6 +41,21 @@
   </si>
   <si>
     <t>Verdict</t>
+  </si>
+  <si>
+    <t>163032</t>
+  </si>
+  <si>
+    <t>Avinash S Kurup</t>
+  </si>
+  <si>
+    <t>8075506023</t>
+  </si>
+  <si>
+    <t>['PeopleFinder', 'GAMA', 'UStride', 'Career Velocity', 'MyPay', 'EthicsPoint', 'USTUSource', 'CORA', 'USTar', 'GlobalTimesheet', 'ValuesPortal', 'Workday', 'ColorsofUST', 'OrionFinance', 'CSR Portal', 'VMT', 'Concur', 'isolve', 'ColumbUS', 'OVCPortal']</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -403,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,6 +449,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>900</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
